--- a/src/test/resources/Run_Manager_SAKANI_4.xlsx
+++ b/src/test/resources/Run_Manager_SAKANI_4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\CrewCentricPOM2023-nhcAutomationSuiteToma\CrewCentricPOM2023-nhcAutomationSuiteToma\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\NHC_SAKANI_R4\SAKANI_3-4\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC38013-6499-41D0-A9B4-5409AF0ECC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D298B453-D1BB-4A6D-A8EF-1C04F262CA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="259">
   <si>
     <t>P_Key</t>
   </si>
@@ -801,6 +801,9 @@
   </si>
   <si>
     <t>Registration/Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
   </si>
 </sst>
 </file>
@@ -1575,7 +1578,7 @@
       <selection activeCell="G5" sqref="G5"/>
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1718,7 +1721,7 @@
         <v>14</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>43</v>
+        <v>258</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>

--- a/src/test/resources/Run_Manager_SAKANI_4.xlsx
+++ b/src/test/resources/Run_Manager_SAKANI_4.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\CrewCentricPOM2023-nhcAutomationSuiteToma\CrewCentricPOM2023-nhcAutomationSuiteToma\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\SAKANI_3-4\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC38013-6499-41D0-A9B4-5409AF0ECC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3032FC-AC6A-4AC6-BC62-0E208B31109F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SuiteDetails" sheetId="1" r:id="rId1"/>
     <sheet name="UserDetails" sheetId="2" r:id="rId2"/>
-    <sheet name="ExtraLines" sheetId="8" state="hidden" r:id="rId3"/>
-    <sheet name="AddCommercialContract" sheetId="7" state="hidden" r:id="rId4"/>
-    <sheet name="AddCommercialContract-old" sheetId="6" state="hidden" r:id="rId5"/>
+    <sheet name="UpdateUnit" sheetId="9" r:id="rId3"/>
+    <sheet name="ExtraLines" sheetId="8" state="hidden" r:id="rId4"/>
+    <sheet name="AddCommercialContract" sheetId="7" state="hidden" r:id="rId5"/>
+    <sheet name="AddCommercialContract-old" sheetId="6" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SuiteDetails!$A$1:$L$3</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="269">
   <si>
     <t>P_Key</t>
   </si>
@@ -801,6 +802,39 @@
   </si>
   <si>
     <t>Registration/Login</t>
+  </si>
+  <si>
+    <t>Update Unit</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Booked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Unit and Verify The Status Is Active </t>
+  </si>
+  <si>
+    <t>VerifyTheStatusIsActive</t>
+  </si>
+  <si>
+    <t>UpdateUnit~Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_5_Update Unit and Verify The Status Is Active </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t>Unit_Code</t>
+  </si>
+  <si>
+    <t>01-01-0108-11-303</t>
   </si>
 </sst>
 </file>
@@ -1568,14 +1602,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G5" sqref="G5"/>
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1680,7 +1714,7 @@
         <v>14</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>43</v>
+        <v>266</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -1718,12 +1752,106 @@
         <v>14</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+    </row>
+    <row r="6" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A6" s="13">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3">
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A7" s="13">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1734,7 +1862,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J4" xr:uid="{4840D365-2419-4BA7-A25F-DECB63988C45}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J7 J3:J4" xr:uid="{4840D365-2419-4BA7-A25F-DECB63988C45}">
       <formula1>"Yes, No "</formula1>
     </dataValidation>
   </dataValidations>
@@ -1748,7 +1876,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1819,6 +1947,98 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F831EE0A-7AC2-4054-B20D-F45DBA052F11}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{2DAB2C4F-3A61-43D4-A8E7-314D2070804C}"/>
+    <hyperlink ref="D2" r:id="rId2" tooltip="mailto:aa@123456" display="mailto:Aa@123456" xr:uid="{A09FB878-1D31-40DF-8277-155B3D6A0147}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{EF82260E-B123-4254-8EEB-DA8BC6372F85}"/>
+    <hyperlink ref="D3" r:id="rId4" tooltip="mailto:aa@123456" display="mailto:Aa@123456" xr:uid="{0B198DAC-2CA0-4C96-847E-FC77732EAE6B}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{24F7B39C-B1F9-4C4E-B69C-CFE687D7BA48}"/>
+    <hyperlink ref="D4" r:id="rId6" tooltip="mailto:aa@123456" display="mailto:Aa@123456" xr:uid="{13A83F0E-AA72-4646-B977-B93233016124}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E018C2BA-0CB2-48AF-8F12-9C04B3E6199D}">
   <dimension ref="A1:L57"/>
   <sheetViews>
@@ -3980,7 +4200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB9010F-006C-4BAC-96E4-BE230ADF8D1F}">
   <dimension ref="A1:L9"/>
   <sheetViews>
@@ -4277,7 +4497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB1985E-8D1C-4D98-A50B-379417761F0C}">
   <dimension ref="A1:J40"/>
   <sheetViews>

--- a/src/test/resources/Run_Manager_SAKANI_4.xlsx
+++ b/src/test/resources/Run_Manager_SAKANI_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\NHC_SAKANI_R4\SAKANI_3-4\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F21CF2-3470-4B35-9DF3-0D3C216DA498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5B7DB1-255B-43C7-8D70-AC601A27371E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="423">
   <si>
     <t>P_Key</t>
   </si>
@@ -816,481 +816,490 @@
     <t>Unit_code</t>
   </si>
   <si>
+    <t>Project_name</t>
+  </si>
+  <si>
+    <t>Bank_name</t>
+  </si>
+  <si>
+    <t>البنك السعودي البريطاني</t>
+  </si>
+  <si>
+    <t>https://test1-sakani-v3.sakani.housing.sa/en</t>
+  </si>
+  <si>
+    <t>Card_number</t>
+  </si>
+  <si>
+    <t>Holder_name</t>
+  </si>
+  <si>
+    <t>Expiry_date</t>
+  </si>
+  <si>
+    <t>CVV_number</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TestAutomation10</t>
+  </si>
+  <si>
+    <t>4464040000000007</t>
+  </si>
+  <si>
+    <t>07/24</t>
+  </si>
+  <si>
+    <t>Register as Individual Delegate</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Register as Individual</t>
+  </si>
+  <si>
+    <t>Individual Registration</t>
+  </si>
+  <si>
+    <t>National_id</t>
+  </si>
+  <si>
+    <t>CR_number</t>
+  </si>
+  <si>
+    <t>AttachmentPDF</t>
+  </si>
+  <si>
+    <t>Mob_number</t>
+  </si>
+  <si>
+    <t>87987678</t>
+  </si>
+  <si>
+    <t>Registration~Individual Registration</t>
+  </si>
+  <si>
+    <t>RegisterAsAnIndividualDelegate</t>
+  </si>
+  <si>
+    <t>01011400</t>
+  </si>
+  <si>
+    <t>\src\test\resources\ejartest.pdf</t>
+  </si>
+  <si>
+    <t>ActivateIndividualAccount</t>
+  </si>
+  <si>
+    <t>TC_01_Register as Individual Delegate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_03_login to Sakani Partners as an Individual </t>
+  </si>
+  <si>
+    <t>Individual account activation</t>
+  </si>
+  <si>
+    <t>Registration~Individual account activation</t>
+  </si>
+  <si>
+    <t>1091941870</t>
+  </si>
+  <si>
+    <t>Unit Booking OffPlan MOH</t>
+  </si>
+  <si>
+    <t>Unit Booking OffPlan Private</t>
+  </si>
+  <si>
+    <t>Pay OffPlan MOH unit booking as eligible user</t>
+  </si>
+  <si>
+    <t>Pay OffPlan Private unit booking as non eligible user</t>
+  </si>
+  <si>
+    <t>Book Unit eligible MOH</t>
+  </si>
+  <si>
+    <t>Aa123456@</t>
+  </si>
+  <si>
+    <t>Book Unit non eligible MOH</t>
+  </si>
+  <si>
+    <t>Pay booking fees eligible MOH</t>
+  </si>
+  <si>
+    <t>BookUnit~Book Unit eligible MOH</t>
+  </si>
+  <si>
+    <t>BookUnit~Pay booking fees eligible MOH</t>
+  </si>
+  <si>
+    <t>BookUnit~Book Unit non eligible MOH</t>
+  </si>
+  <si>
+    <t>Book Unit non eligible Private</t>
+  </si>
+  <si>
+    <t>Pay booking fees non eligible Private</t>
+  </si>
+  <si>
+    <t>BookUnit~Book Unit non eligible Private</t>
+  </si>
+  <si>
+    <t>BookUnit~Pay booking fees non eligible Private</t>
+  </si>
+  <si>
+    <t>Book Unit eligible Private</t>
+  </si>
+  <si>
+    <t>PayUnitBookingPriceMOHLandAsEligibleUser</t>
+  </si>
+  <si>
+    <t>PayUnitBookingPricePrivateLandAsNonEligibleUser</t>
+  </si>
+  <si>
+    <t>BookUnit~Book Unit eligible Private</t>
+  </si>
+  <si>
+    <t>VerifyTheStatusIsActive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Unit and Verify The Status Is Inactive </t>
+  </si>
+  <si>
+    <t>VerifyTheStatusIsInactive</t>
+  </si>
+  <si>
+    <t>UpdateUnit~Inactive</t>
+  </si>
+  <si>
+    <t>Update Unit and Verify The Status Can Not Be Change</t>
+  </si>
+  <si>
+    <t>VerifyTheStatusCanNotBeChange</t>
+  </si>
+  <si>
+    <t>UpdateUnit~Booked</t>
+  </si>
+  <si>
+    <t>Activate Individual user</t>
+  </si>
+  <si>
+    <t>Activate individual registered user account</t>
+  </si>
+  <si>
+    <t>TC_02_Activate individual registered user account</t>
+  </si>
+  <si>
+    <t>Register as a Company</t>
+  </si>
+  <si>
+    <t>Activate company account</t>
+  </si>
+  <si>
+    <t>Register as a Company Delegate</t>
+  </si>
+  <si>
+    <t>Activate Company registered account</t>
+  </si>
+  <si>
+    <t>Company Registration as delegate</t>
+  </si>
+  <si>
+    <t>Company account activation delegate</t>
+  </si>
+  <si>
+    <t>Registration~Company Registration as delegate</t>
+  </si>
+  <si>
+    <t>Registration~Company account activation delegate</t>
+  </si>
+  <si>
+    <t>https://test1-admin-sakani.housingapps.sa</t>
+  </si>
+  <si>
+    <t>ActivateCompanyAccountDelegate</t>
+  </si>
+  <si>
+    <t>LoginAsACompanyDelegate</t>
+  </si>
+  <si>
+    <t>TC_04_Register as a Company Delegate</t>
+  </si>
+  <si>
+    <t>TC_05_Activate Company registered account</t>
+  </si>
+  <si>
+    <t>TC_06_login to Sakani Partners as a Company</t>
+  </si>
+  <si>
+    <t>super_admin@test1-admin-sakani.housingapps.sa</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>RegisterAsACompanyDelegate</t>
+  </si>
+  <si>
+    <t>Company Login Delegate</t>
+  </si>
+  <si>
+    <t>UserDetails~Company Login Delegate</t>
+  </si>
+  <si>
+    <t>Cancel Unit Booking MOH</t>
+  </si>
+  <si>
+    <t>Cancel booking of first offplan MOH unit</t>
+  </si>
+  <si>
+    <t>Cancel Unit 1</t>
+  </si>
+  <si>
+    <t>Cancel Unit 2</t>
+  </si>
+  <si>
+    <t>CancelBooking~Cancel Unit 1</t>
+  </si>
+  <si>
+    <t>CancelBooking~Cancel Unit 2</t>
+  </si>
+  <si>
+    <t>Cancel booking of Second offplan MOH unit</t>
+  </si>
+  <si>
+    <t>CancelMOHBookingFirstUser</t>
+  </si>
+  <si>
+    <t>CancelMOHBookingSecondUser</t>
+  </si>
+  <si>
+    <t>Add Developer</t>
+  </si>
+  <si>
+    <t>Link Project To Developer</t>
+  </si>
+  <si>
+    <t>Add registered company as a developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link a project to the added developer </t>
+  </si>
+  <si>
+    <t>TC_07_Add registered company as a developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_08_Link a project to the added developer </t>
+  </si>
+  <si>
+    <t>Unit_Code</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Booked</t>
+  </si>
+  <si>
+    <t>Link Project</t>
+  </si>
+  <si>
+    <t>UpdateUnit~Add Developer</t>
+  </si>
+  <si>
+    <t>UpdateUnit~Link Project</t>
+  </si>
+  <si>
+    <t>Project_Code</t>
+  </si>
+  <si>
+    <t>Unit_Status</t>
+  </si>
+  <si>
+    <t>01-01-0108</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>inactive</t>
+  </si>
+  <si>
+    <t>Company_Name</t>
+  </si>
+  <si>
+    <t>IBAN</t>
+  </si>
+  <si>
+    <t>SA1234455555555555555555</t>
+  </si>
+  <si>
+    <t>AddCompanyAsDeveloper</t>
+  </si>
+  <si>
+    <t>CR_Number</t>
+  </si>
+  <si>
+    <t>LinkProjectWithTheAddedDeveloper</t>
+  </si>
+  <si>
+    <t>Bank_Name</t>
+  </si>
+  <si>
+    <t>البنك السعودي الفرنسي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_09_Update Unit and Verify The Status Is Active </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_10_Update Unit and Verify The Status Is Inactive </t>
+  </si>
+  <si>
+    <t>TC_11_Update Unit and Verify The Status Can Not Be Change</t>
+  </si>
+  <si>
+    <t>TC_13_Pay OffPlan MOH unit booking as eligible user</t>
+  </si>
+  <si>
+    <t>TC_16_Cancel booking of first offplan MOH unit</t>
+  </si>
+  <si>
+    <t>TC_17_Cancel booking of Second offplan MOH unit</t>
+  </si>
+  <si>
+    <t>TC_19_Pay OffPlan Private unit booking as non eligible user</t>
+  </si>
+  <si>
+    <t>1010016580</t>
+  </si>
+  <si>
+    <t>1028645446</t>
+  </si>
+  <si>
+    <t>15011403</t>
+  </si>
+  <si>
+    <t>1056789129</t>
+  </si>
+  <si>
+    <t>Automation testing company Riyadh</t>
+  </si>
+  <si>
+    <t>01-01-0108-55-804</t>
+  </si>
+  <si>
+    <t>01-01-0108-33-801</t>
+  </si>
+  <si>
+    <t>01-01-0108-22-101</t>
+  </si>
+  <si>
+    <t>Book OffPlan MOH unit as eligible user with booking fees</t>
+  </si>
+  <si>
+    <t>TC_12_Book OffPlan MOH unit as eligible user with booking fees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book OffPlan MOH unit as non eligible user without booking fees </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_14_Book OffPlan MOH unit as non eligible user without booking fees </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book OffPlan Private unit as non eligible user with booking fees </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_18_Book OffPlan Private unit as non eligible user with booking fees </t>
+  </si>
+  <si>
+    <t>Book OffPlan Private unit as eligible user without booking fees</t>
+  </si>
+  <si>
+    <t>TC_20_Book OffPlan Private unit as eligible user without booking fees</t>
+  </si>
+  <si>
+    <t>BookUnitFromMOHLandAsNonEligibleUserWithoutBookingFees</t>
+  </si>
+  <si>
+    <t>BookUnitFromMOHLandAsEligibleUserWithBookingFees</t>
+  </si>
+  <si>
+    <t>BookUnitFromPrivateLandAsNonEligibleUserWithBookingFees</t>
+  </si>
+  <si>
+    <t>REDF Target Segment test one</t>
+  </si>
+  <si>
+    <t>01-01-0108-22-800</t>
+  </si>
+  <si>
+    <t>Target Segment test 3</t>
+  </si>
+  <si>
+    <t>02-01-0024-8-1991</t>
+  </si>
+  <si>
     <t>Test AZM links for all units</t>
   </si>
   <si>
-    <t>Project_name</t>
-  </si>
-  <si>
-    <t>01-01-0148-90-2005</t>
-  </si>
-  <si>
-    <t>Bank_name</t>
-  </si>
-  <si>
-    <t>البنك السعودي البريطاني</t>
-  </si>
-  <si>
-    <t>Redf&amp;123456</t>
-  </si>
-  <si>
-    <t>https://test1-sakani-v3.sakani.housing.sa/en</t>
-  </si>
-  <si>
-    <t>Card_number</t>
-  </si>
-  <si>
-    <t>Holder_name</t>
-  </si>
-  <si>
-    <t>Expiry_date</t>
-  </si>
-  <si>
-    <t>CVV_number</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>TestAutomation10</t>
-  </si>
-  <si>
-    <t>4464040000000007</t>
-  </si>
-  <si>
-    <t>07/24</t>
-  </si>
-  <si>
-    <t>Register as Individual Delegate</t>
-  </si>
-  <si>
-    <t>Register</t>
-  </si>
-  <si>
-    <t>Register as Individual</t>
-  </si>
-  <si>
-    <t>Individual Registration</t>
-  </si>
-  <si>
-    <t>National_id</t>
-  </si>
-  <si>
-    <t>CR_number</t>
-  </si>
-  <si>
-    <t>AttachmentPDF</t>
-  </si>
-  <si>
-    <t>Mob_number</t>
-  </si>
-  <si>
-    <t>1010486785</t>
-  </si>
-  <si>
-    <t>87987678</t>
-  </si>
-  <si>
-    <t>Registration~Individual Registration</t>
-  </si>
-  <si>
-    <t>RegisterAsAnIndividualDelegate</t>
-  </si>
-  <si>
-    <t>01011400</t>
-  </si>
-  <si>
-    <t>\src\test\resources\ejartest.pdf</t>
-  </si>
-  <si>
-    <t>ActivateIndividualAccount</t>
-  </si>
-  <si>
-    <t>TC_01_Register as Individual Delegate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_03_login to Sakani Partners as an Individual </t>
-  </si>
-  <si>
-    <t>Individual account activation</t>
-  </si>
-  <si>
-    <t>Registration~Individual account activation</t>
-  </si>
-  <si>
-    <t>1091941870</t>
-  </si>
-  <si>
-    <t>02-06-0001-5-2009</t>
+    <t>01-01-0148-90-2009</t>
+  </si>
+  <si>
+    <t>Target Segment test one REDF</t>
+  </si>
+  <si>
+    <t>Verify booking of OffPlan MOH unit booking as non eligible user</t>
+  </si>
+  <si>
+    <t>TC_15_Verify booking of OffPlan MOH unit booking as non eligible user</t>
+  </si>
+  <si>
+    <t>Verify booking non eligible MOH</t>
+  </si>
+  <si>
+    <t>BookUnit~Verify booking non eligible MOH</t>
+  </si>
+  <si>
+    <t>1089626541</t>
   </si>
   <si>
     <t>الطائف - إدارة للتنمية والتطوير - مدينة الورود non_bene unit 1</t>
   </si>
   <si>
-    <t>Unit Booking OffPlan MOH</t>
-  </si>
-  <si>
-    <t>Unit Booking OffPlan Private</t>
-  </si>
-  <si>
-    <t>Pay OffPlan MOH unit booking as eligible user</t>
-  </si>
-  <si>
-    <t>Book OffPlan MOH unit as eligible user</t>
-  </si>
-  <si>
-    <t>Book OffPlan MOH unit as non eligible user</t>
-  </si>
-  <si>
-    <t>Pay OffPlan MOH unit booking as non eligible user</t>
-  </si>
-  <si>
-    <t>Book OffPlan Private unit as eligible user</t>
-  </si>
-  <si>
-    <t>Pay OffPlan Private unit booking as eligible user</t>
-  </si>
-  <si>
-    <t>Book OffPlan Private unit as non eligible user</t>
-  </si>
-  <si>
-    <t>Pay OffPlan Private unit booking as non eligible user</t>
-  </si>
-  <si>
-    <t>Book Unit eligible MOH</t>
-  </si>
-  <si>
-    <t>Aa123456@</t>
-  </si>
-  <si>
-    <t>Book Unit non eligible MOH</t>
-  </si>
-  <si>
-    <t>Pay booking fees eligible MOH</t>
-  </si>
-  <si>
-    <t>Pay booking fees non eligible MOH</t>
-  </si>
-  <si>
-    <t>BookUnit~Book Unit eligible MOH</t>
-  </si>
-  <si>
-    <t>BookUnit~Pay booking fees eligible MOH</t>
-  </si>
-  <si>
-    <t>BookUnit~Book Unit non eligible MOH</t>
-  </si>
-  <si>
-    <t>BookUnit~Pay booking fees non eligible MOH</t>
-  </si>
-  <si>
-    <t>Book Unit non eligible Private</t>
-  </si>
-  <si>
-    <t>Pay booking fees non eligible Private</t>
-  </si>
-  <si>
-    <t>BookUnit~Book Unit non eligible Private</t>
-  </si>
-  <si>
-    <t>BookUnit~Pay booking fees non eligible Private</t>
-  </si>
-  <si>
-    <t>Book Unit eligible Private</t>
-  </si>
-  <si>
-    <t>Pay booking fees eligible Private</t>
-  </si>
-  <si>
-    <t>01-01-0148-10-202020</t>
-  </si>
-  <si>
-    <t>02-06-0001-052-04-0914</t>
-  </si>
-  <si>
-    <t>PayUnitBookingPriceMOHLandAsEligibleUser</t>
-  </si>
-  <si>
-    <t>PayUnitBookingPricePrivateLandAsNonEligibleUser</t>
-  </si>
-  <si>
-    <t>PayUnitBookingPriceMOHLandAsNonEligibleUser</t>
-  </si>
-  <si>
-    <t>PayUnitBookingPricePrivateLandAsEligibleUser</t>
-  </si>
-  <si>
-    <t>BookUnit~Book Unit eligible Private</t>
-  </si>
-  <si>
-    <t>BookUnit~Pay booking fees eligible Private</t>
-  </si>
-  <si>
-    <t>VerifyTheStatusIsActive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update Unit and Verify The Status Is Inactive </t>
-  </si>
-  <si>
-    <t>VerifyTheStatusIsInactive</t>
-  </si>
-  <si>
-    <t>UpdateUnit~Inactive</t>
-  </si>
-  <si>
-    <t>Update Unit and Verify The Status Can Not Be Change</t>
-  </si>
-  <si>
-    <t>VerifyTheStatusCanNotBeChange</t>
-  </si>
-  <si>
-    <t>UpdateUnit~Booked</t>
-  </si>
-  <si>
-    <t>Activate Individual user</t>
-  </si>
-  <si>
-    <t>Activate individual registered user account</t>
-  </si>
-  <si>
-    <t>TC_02_Activate individual registered user account</t>
-  </si>
-  <si>
-    <t>Register as a Company</t>
-  </si>
-  <si>
-    <t>Activate company account</t>
-  </si>
-  <si>
-    <t>Register as a Company Delegate</t>
-  </si>
-  <si>
-    <t>Activate Company registered account</t>
-  </si>
-  <si>
-    <t>Company Registration as delegate</t>
-  </si>
-  <si>
-    <t>Company account activation delegate</t>
-  </si>
-  <si>
-    <t>Registration~Company Registration as delegate</t>
-  </si>
-  <si>
-    <t>Registration~Company account activation delegate</t>
-  </si>
-  <si>
-    <t>https://test1-admin-sakani.housingapps.sa</t>
-  </si>
-  <si>
-    <t>1008723478</t>
-  </si>
-  <si>
-    <t>ActivateCompanyAccountDelegate</t>
-  </si>
-  <si>
-    <t>LoginAsACompanyDelegate</t>
-  </si>
-  <si>
-    <t>TC_04_Register as a Company Delegate</t>
-  </si>
-  <si>
-    <t>TC_05_Activate Company registered account</t>
-  </si>
-  <si>
-    <t>TC_06_login to Sakani Partners as a Company</t>
-  </si>
-  <si>
-    <t>super_admin@test1-admin-sakani.housingapps.sa</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>RegisterAsACompanyDelegate</t>
-  </si>
-  <si>
-    <t>1004623433</t>
-  </si>
-  <si>
-    <t>01071362</t>
-  </si>
-  <si>
-    <t>Company Login Delegate</t>
-  </si>
-  <si>
-    <t>UserDetails~Company Login Delegate</t>
-  </si>
-  <si>
-    <t>Cancel Unit Booking MOH</t>
-  </si>
-  <si>
-    <t>Cancel booking of first offplan MOH unit</t>
-  </si>
-  <si>
-    <t>Cancel Unit 1</t>
-  </si>
-  <si>
-    <t>Cancel Unit 2</t>
-  </si>
-  <si>
-    <t>CancelBooking~Cancel Unit 1</t>
-  </si>
-  <si>
-    <t>CancelBooking~Cancel Unit 2</t>
-  </si>
-  <si>
-    <t>Cancel booking of Second offplan MOH unit</t>
-  </si>
-  <si>
-    <t>BookUnitFromMOHLandAsEligibleUser</t>
-  </si>
-  <si>
-    <t>BookUnitFromMOHLandAsNonEligibleUser</t>
-  </si>
-  <si>
-    <t>BookUnitFromPrivateLandAsNonEligibleUser</t>
-  </si>
-  <si>
-    <t>BookUnitFromPrivateLandAsEligibleUser</t>
-  </si>
-  <si>
-    <t>CancelMOHBookingFirstUser</t>
-  </si>
-  <si>
-    <t>CancelMOHBookingSecondUser</t>
-  </si>
-  <si>
-    <t>1709890897</t>
-  </si>
-  <si>
-    <t>Add Developer</t>
-  </si>
-  <si>
-    <t>Link Project To Developer</t>
-  </si>
-  <si>
-    <t>Add registered company as a developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link a project to the added developer </t>
-  </si>
-  <si>
-    <t>TC_07_Add registered company as a developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_08_Link a project to the added developer </t>
-  </si>
-  <si>
-    <t>Unit_Code</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>01-01-0108-11-303</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>Booked</t>
-  </si>
-  <si>
-    <t>Link Project</t>
-  </si>
-  <si>
-    <t>UpdateUnit~Add Developer</t>
-  </si>
-  <si>
-    <t>UpdateUnit~Link Project</t>
-  </si>
-  <si>
-    <t>Project_Code</t>
-  </si>
-  <si>
-    <t>Unit_Status</t>
-  </si>
-  <si>
-    <t>01-01-0108</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>inactive</t>
-  </si>
-  <si>
-    <t>Company_Name</t>
-  </si>
-  <si>
-    <t>IBAN</t>
-  </si>
-  <si>
-    <t>SA1234455555555555555555</t>
-  </si>
-  <si>
-    <t>01-01-0108-11-305</t>
-  </si>
-  <si>
-    <t>AddCompanyAsDeveloper</t>
-  </si>
-  <si>
-    <t>CR_Number</t>
-  </si>
-  <si>
-    <t>LinkProjectWithTheAddedDeveloper</t>
-  </si>
-  <si>
-    <t>Bank_Name</t>
-  </si>
-  <si>
-    <t>البنك السعودي الفرنسي</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_09_Update Unit and Verify The Status Is Active </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_10_Update Unit and Verify The Status Is Inactive </t>
-  </si>
-  <si>
-    <t>TC_11_Update Unit and Verify The Status Can Not Be Change</t>
-  </si>
-  <si>
-    <t>TC_12_Book OffPlan MOH unit as eligible user</t>
-  </si>
-  <si>
-    <t>TC_13_Pay OffPlan MOH unit booking as eligible user</t>
-  </si>
-  <si>
-    <t>TC_14_Book OffPlan MOH unit as non eligible user</t>
-  </si>
-  <si>
-    <t>TC_15_Pay OffPlan MOH unit booking as non eligible user</t>
-  </si>
-  <si>
-    <t>TC_16_Cancel booking of first offplan MOH unit</t>
-  </si>
-  <si>
-    <t>TC_17_Cancel booking of Second offplan MOH unit</t>
-  </si>
-  <si>
-    <t>TC_18_Book OffPlan Private unit as non eligible user</t>
-  </si>
-  <si>
-    <t>TC_19_Pay OffPlan Private unit booking as non eligible user</t>
-  </si>
-  <si>
-    <t>TC_20_Book OffPlan Private unit as eligible user</t>
-  </si>
-  <si>
-    <t>TC_21_Pay OffPlan Private unit booking as eligible user</t>
-  </si>
-  <si>
-    <t>Automation test partners company</t>
+    <t>Verify booking of OffPlan Private unit booking as eligible user</t>
+  </si>
+  <si>
+    <t>TC_21_Verify booking of OffPlan Private unit booking as eligible user</t>
+  </si>
+  <si>
+    <t>Verify booking non eligible Private</t>
+  </si>
+  <si>
+    <t>BookUnit~Verify booking non eligible Private</t>
+  </si>
+  <si>
+    <t>BookUnitFromPrivateLandAsEligibleUserWithoutBookingFees</t>
+  </si>
+  <si>
+    <t>VerifyTheBookingMOHLandAsNonEligibleUser</t>
+  </si>
+  <si>
+    <t>VerifyBookingPrivateLandAsEligibleUser</t>
+  </si>
+  <si>
+    <t>02-06-0001-5-2005</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1599,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1683,6 +1692,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1795,9 +1805,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1835,7 +1845,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1941,7 +1951,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2083,7 +2093,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2094,11 +2104,11 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G5" sqref="G5"/>
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2179,22 +2189,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>13</v>
@@ -2217,22 +2227,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>13</v>
@@ -2270,7 +2280,7 @@
         <v>251</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>13</v>
@@ -2293,22 +2303,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>13</v>
@@ -2331,22 +2341,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>13</v>
@@ -2378,13 +2388,13 @@
         <v>249</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>13</v>
@@ -2425,31 +2435,31 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>43</v>
+        <v>256</v>
       </c>
       <c r="K10" s="3">
         <v>1</v>
@@ -2463,27 +2473,27 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="3" t="s">
@@ -2510,18 +2520,18 @@
         <v>254</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>255</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J12" s="3" t="s">
@@ -2542,24 +2552,24 @@
         <v>253</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -2580,24 +2590,24 @@
         <v>253</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -2633,22 +2643,22 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>302</v>
+        <v>391</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>302</v>
+        <v>391</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>13</v>
@@ -2657,7 +2667,7 @@
         <v>14</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>256</v>
+        <v>43</v>
       </c>
       <c r="K16" s="3">
         <v>1</v>
@@ -2671,22 +2681,22 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>13</v>
@@ -2709,22 +2719,22 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>13</v>
@@ -2747,22 +2757,22 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>304</v>
+        <v>409</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>304</v>
+        <v>409</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>328</v>
+        <v>420</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>317</v>
+        <v>412</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>13</v>
@@ -2785,22 +2795,22 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>13</v>
@@ -2823,22 +2833,22 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>13</v>
@@ -2861,22 +2871,22 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>307</v>
+        <v>395</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>307</v>
+        <v>395</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>13</v>
@@ -2899,22 +2909,22 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>13</v>
@@ -2937,22 +2947,22 @@
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>305</v>
+        <v>397</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>305</v>
+        <v>397</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>13</v>
@@ -2975,22 +2985,22 @@
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>306</v>
+        <v>415</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>306</v>
+        <v>415</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>329</v>
+        <v>421</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>331</v>
+        <v>418</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>13</v>
@@ -3029,7 +3039,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3060,97 +3070,97 @@
         <v>29</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="F1" s="48" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="G1" s="48" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="H1" s="48" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="I1" s="51" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="J1" s="51" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="K1" s="48" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>243</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>244</v>
+        <v>384</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>245</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
@@ -3159,25 +3169,25 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="B5" s="37" t="s">
         <v>243</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>244</v>
+        <v>384</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>245</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
@@ -3186,25 +3196,25 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>243</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>244</v>
+        <v>384</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>245</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
@@ -3231,7 +3241,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3262,7 +3272,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>243</v>
@@ -3279,7 +3289,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>243</v>
@@ -3291,7 +3301,7 @@
         <v>245</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -3344,7 +3354,7 @@
         <v>243</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>244</v>
+        <v>386</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>245</v>
@@ -3352,13 +3362,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>243</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>245</v>
@@ -3386,7 +3396,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3415,24 +3425,24 @@
         <v>29</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F1" s="48" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G1" s="48" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="48" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I1" s="48" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>243</v>
@@ -3442,39 +3452,39 @@
         <v>245</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="F2" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="G2" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="G2" s="38" t="s">
-        <v>289</v>
-      </c>
       <c r="H2" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="I2" s="38" t="s">
         <v>286</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>243</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>244</v>
+        <v>384</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>245</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>285</v>
+        <v>383</v>
       </c>
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
@@ -3482,7 +3492,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>243</v>
@@ -3492,39 +3502,39 @@
         <v>245</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="H4" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="I4" s="38" t="s">
         <v>286</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="38" t="s">
-        <v>360</v>
-      </c>
-      <c r="G5" s="39"/>
+        <v>383</v>
+      </c>
+      <c r="G5" s="38"/>
       <c r="H5" s="39"/>
       <c r="I5" s="39"/>
     </row>
@@ -3548,7 +3558,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="A19:B20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3577,7 +3587,7 @@
         <v>29</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F1" s="41" t="s">
         <v>258</v>
@@ -3586,24 +3596,24 @@
         <v>260</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I1" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="L1" s="41" t="s">
         <v>268</v>
-      </c>
-      <c r="J1" s="41" t="s">
-        <v>269</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>243</v>
@@ -3615,62 +3625,62 @@
         <v>245</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>261</v>
+        <v>406</v>
       </c>
       <c r="F2" s="38" t="s">
         <v>259</v>
       </c>
       <c r="G2" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="H2" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="H2" s="38" t="s">
-        <v>265</v>
-      </c>
       <c r="I2" s="38" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>259</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>261</v>
+        <v>406</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>263</v>
+        <v>407</v>
       </c>
       <c r="I3" s="45" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J3" s="44" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>243</v>
@@ -3681,63 +3691,63 @@
       <c r="D4" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>261</v>
+      <c r="E4" s="52" t="s">
+        <v>402</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>324</v>
+        <v>403</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
-        <v>313</v>
+        <v>411</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>310</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>261</v>
+        <v>298</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>408</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>324</v>
+        <v>403</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J5" s="44" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K5" s="46" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>243</v>
@@ -3749,62 +3759,62 @@
         <v>245</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>298</v>
+        <v>414</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>296</v>
+        <v>413</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>297</v>
+        <v>422</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>296</v>
+        <v>413</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>298</v>
+        <v>414</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>297</v>
+        <v>422</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J7" s="44" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K7" s="46" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L7" s="38" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>243</v>
@@ -3816,57 +3826,57 @@
         <v>245</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>298</v>
+        <v>404</v>
       </c>
       <c r="F8" s="38" t="s">
         <v>259</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>325</v>
+        <v>405</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
-        <v>323</v>
+        <v>417</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>259</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>298</v>
+        <v>404</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>325</v>
+        <v>405</v>
       </c>
       <c r="I9" s="45" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J9" s="44" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K9" s="46" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3877,18 +3887,20 @@
     <hyperlink ref="B3" r:id="rId3" xr:uid="{9BB45649-C390-4159-B5AD-527599049066}"/>
     <hyperlink ref="B6" r:id="rId4" xr:uid="{240BE46D-7067-4F4F-892C-08AB8CFAF365}"/>
     <hyperlink ref="D6" r:id="rId5" tooltip="mailto:aa@123456" display="mailto:Aa@123456" xr:uid="{F35FD271-F190-4793-9A9C-A43DD56BD241}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{E7DC9849-F2ED-4368-85B2-3641D98E4CCF}"/>
-    <hyperlink ref="D7" r:id="rId7" tooltip="mailto:aa@123456" display="mailto:Aa@123456" xr:uid="{B4E2EF64-0BE6-4715-98B8-21D0DBEAE2A8}"/>
-    <hyperlink ref="B4" r:id="rId8" xr:uid="{A355C804-9AF5-464B-ADD5-17875C928B6D}"/>
-    <hyperlink ref="D4" r:id="rId9" tooltip="mailto:aa@123456" display="mailto:Aa@123456" xr:uid="{FC3CA24D-4F35-4873-8C1A-5DF410D0EF78}"/>
-    <hyperlink ref="B5" r:id="rId10" xr:uid="{05EE4B54-7CD9-4F6E-9DD1-600139CB2187}"/>
-    <hyperlink ref="D5" r:id="rId11" tooltip="mailto:aa@123456" display="mailto:Aa@123456" xr:uid="{C00092B3-FD1E-4A5D-A168-99C186EDA009}"/>
-    <hyperlink ref="B8" r:id="rId12" xr:uid="{3E1E6732-3A22-4EDA-B56F-53C44E437CBB}"/>
-    <hyperlink ref="B9" r:id="rId13" xr:uid="{F7738BB7-E74E-4AAB-B0E8-8D8F9E8FD1E8}"/>
-    <hyperlink ref="D8" r:id="rId14" tooltip="mailto:aa@123456" display="mailto:Aa@123456" xr:uid="{2D250EBE-A7D6-4CB4-A0A6-1873BE6A90B6}"/>
+    <hyperlink ref="D7" r:id="rId6" tooltip="mailto:aa@123456" display="mailto:Aa@123456" xr:uid="{B4E2EF64-0BE6-4715-98B8-21D0DBEAE2A8}"/>
+    <hyperlink ref="B4" r:id="rId7" xr:uid="{A355C804-9AF5-464B-ADD5-17875C928B6D}"/>
+    <hyperlink ref="D4" r:id="rId8" tooltip="mailto:aa@123456" display="mailto:Aa@123456" xr:uid="{FC3CA24D-4F35-4873-8C1A-5DF410D0EF78}"/>
+    <hyperlink ref="B5" r:id="rId9" xr:uid="{05EE4B54-7CD9-4F6E-9DD1-600139CB2187}"/>
+    <hyperlink ref="D5" r:id="rId10" tooltip="mailto:aa@123456" display="mailto:Aa@123456" xr:uid="{C00092B3-FD1E-4A5D-A168-99C186EDA009}"/>
+    <hyperlink ref="B8" r:id="rId11" xr:uid="{3E1E6732-3A22-4EDA-B56F-53C44E437CBB}"/>
+    <hyperlink ref="D8" r:id="rId12" tooltip="mailto:aa@123456" display="mailto:Aa@123456" xr:uid="{2D250EBE-A7D6-4CB4-A0A6-1873BE6A90B6}"/>
+    <hyperlink ref="D3" r:id="rId13" tooltip="mailto:aa@123456" display="mailto:Aa@123456" xr:uid="{DB007C50-9D4E-47DA-A04C-792EBACFAA20}"/>
+    <hyperlink ref="B7" r:id="rId14" xr:uid="{9B7F931A-AFBA-4B85-9672-FF63F6455629}"/>
+    <hyperlink ref="B9" r:id="rId15" xr:uid="{2D9483B6-EAF2-4910-B805-70851AAD2DBA}"/>
+    <hyperlink ref="D9" r:id="rId16" tooltip="mailto:aa@123456" display="mailto:Aa@123456" xr:uid="{730828C4-7681-4A31-ADDE-EB76D6C51B85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -5499,20 +5511,20 @@
       </c>
     </row>
     <row r="43" spans="1:12" s="2" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="54"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="55"/>
     </row>
     <row r="44" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A44" s="13">

--- a/src/test/resources/Run_Manager_SAKANI_4.xlsx
+++ b/src/test/resources/Run_Manager_SAKANI_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\NHC_SAKANI_R4\SAKANI_3-4\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntellijWorkspace\NHC\NHC_SAKANI_R4\SAKANI_3-4\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5B7DB1-255B-43C7-8D70-AC601A27371E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4E78C6-B668-4071-AF45-1F06152C1EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SuiteDetails" sheetId="1" r:id="rId1"/>
@@ -2103,12 +2103,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G5" sqref="G5"/>
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
-      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3038,8 +3038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FD0DB3-1232-4666-B632-4A62A4E80E52}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3396,7 +3396,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
